--- a/slides/lecture05/exercises/choosecols_chooserows.xlsx
+++ b/slides/lecture05/exercises/choosecols_chooserows.xlsx
@@ -1930,7 +1930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF06AD3C-666C-47DF-A3AD-9A2F4E67E4D6}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
